--- a/data/trans_dic/P55_4-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P55_4-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37,7 +38,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +64,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,12 +524,18 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que no tiene capacidad para afrontar gastos imprevistos (de 650 euros)</t>
+          <t>Población que no tiene capacidad para afrontar gastos imprevistos (de 650 euros) (tasa de respuesta: 97,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -531,18 +545,24 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
+      <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -554,27 +574,57 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -587,6 +637,12 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>80,86%</t>
+          <t>80,1%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>49,21%</t>
+          <t>73,73%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>71,61%</t>
+          <t>49,2%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>53,57%</t>
+          <t>50,93%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>76,34%</t>
+          <t>72,05%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>51,36%</t>
+          <t>63,4%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>53,56%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>50,2%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>76,14%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>68,48%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>51,35%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>50,6%</t>
         </is>
       </c>
     </row>
@@ -639,32 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>72,14; 87,83</t>
+          <t>70,68; 86,94</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>39,04; 59,99</t>
+          <t>64,57; 82,25</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>63,95; 78,65</t>
+          <t>37,97; 59,96</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>44,82; 61,98</t>
+          <t>40,04; 61,05</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>70,63; 81,35</t>
+          <t>64,56; 78,47</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>43,8; 58,29</t>
+          <t>54,56; 72,35</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>43,69; 62,69</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>39,59; 58,82</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>70,55; 81,72</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>61,14; 74,86</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>43,36; 58,84</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>43,34; 57,78</t>
         </is>
       </c>
     </row>
@@ -681,32 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>64,04%</t>
+          <t>62,95%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>60,0%</t>
+          <t>80,66%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>65,45%</t>
+          <t>60,02%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>58,23%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>65,5%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>66,82%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
           <t>51,7%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>64,7%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>56,04%</t>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>46,93%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>64,13%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>74,16%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>56,05%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>52,74%</t>
         </is>
       </c>
     </row>
@@ -719,32 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>52,19; 72,55</t>
+          <t>50,71; 71,58</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>50,32; 68,63</t>
+          <t>72,91; 87,08</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>58,48; 72,02</t>
+          <t>50,63; 69,62</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>43,85; 59,64</t>
+          <t>47,34; 67,25</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>58,82; 70,31</t>
+          <t>58,95; 72,09</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>49,64; 62,53</t>
+          <t>58,41; 74,15</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>43,99; 59,16</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>38,94; 54,36</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>56,53; 69,77</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>68,72; 79,82</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>49,44; 62,47</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>45,9; 59,24</t>
         </is>
       </c>
     </row>
@@ -761,32 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>71,81%</t>
+          <t>71,59%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>74,35%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>55,54%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>78,59%</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>60,87%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>78,64%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>72,34%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
           <t>49,11%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>75,35%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>46,19%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>75,25%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>73,31%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
         <is>
           <t>52,53%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>53,96%</t>
         </is>
       </c>
     </row>
@@ -799,32 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>62,57; 78,54</t>
+          <t>63,12; 78,14</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>47,43; 62,2</t>
+          <t>66,68; 80,94</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>74,47; 83,08</t>
+          <t>47,94; 62,29</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>42,74; 55,4</t>
+          <t>53,21; 69,03</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>70,48; 79,09</t>
+          <t>74,24; 82,78</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>47,56; 57,26</t>
+          <t>66,43; 77,36</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>42,94; 55,52</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>39,62; 53,42</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>70,33; 79,16</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>68,88; 77,37</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>47,44; 57,54</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>48,57; 58,7</t>
         </is>
       </c>
     </row>
@@ -841,32 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>77,55%</t>
+          <t>77,81%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
+          <t>77,94%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>47,3%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>64,11%</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>40,94%</t>
+          <t>53,94%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>70,83%</t>
+          <t>64,04%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
+          <t>65,49%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>40,93%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>46,51%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>70,91%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>71,66%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
           <t>44,3%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>50,38%</t>
         </is>
       </c>
     </row>
@@ -879,32 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>71,06; 82,64</t>
+          <t>71,01; 83,16</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>40,08; 55,74</t>
+          <t>69,33; 83,13</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>58,99; 69,51</t>
+          <t>39,82; 55,5</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>34,9; 47,93</t>
+          <t>46,64; 61,02</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>66,46; 74,7</t>
+          <t>58,4; 68,92</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>39,57; 49,15</t>
+          <t>59,97; 70,73</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>34,95; 47,77</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>40,13; 52,85</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>66,68; 74,53</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>66,62; 75,74</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>38,89; 49,3</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>45,18; 55,01</t>
         </is>
       </c>
     </row>
@@ -921,32 +1217,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>71,04%</t>
+          <t>71,23%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
+          <t>67,12%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>52,96%</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>63,24%</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>52,04%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>63,0%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>54,99%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
           <t>39,79%</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>67,14%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>39,54%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>67,1%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>61,05%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
         <is>
           <t>46,03%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>45,63%</t>
         </is>
       </c>
     </row>
@@ -959,32 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>64,51; 76,35</t>
+          <t>64,89; 77,17</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>45,37; 60,95</t>
+          <t>59,64; 74,17</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>56,46; 69,35</t>
+          <t>44,5; 60,38</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>33,11; 46,36</t>
+          <t>44,86; 59,35</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>62,41; 71,5</t>
+          <t>56,85; 68,76</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>40,96; 51,07</t>
+          <t>46,22; 62,33</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>33,39; 46,39</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>32,9; 45,75</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>62,71; 71,38</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>55,49; 65,79</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>40,84; 51,48</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>40,93; 50,9</t>
         </is>
       </c>
     </row>
@@ -1001,32 +1357,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>74,53%</t>
+          <t>74,64%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>59,65%</t>
+          <t>74,17%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>53,15%</t>
+          <t>59,66%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>53,81%</t>
+          <t>55,42%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>62,43%</t>
+          <t>55,17%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>56,31%</t>
+          <t>55,35%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>53,82%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>43,58%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>63,64%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>63,76%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>56,32%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>48,69%</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>66,17; 81,37</t>
+          <t>66,99; 80,91</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>50,34; 67,47</t>
+          <t>66,15; 81,31</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>41,14; 60,3</t>
+          <t>50,55; 67,74</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>43,82; 63,09</t>
+          <t>46,9; 64,36</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>54,66; 67,75</t>
+          <t>47,34; 62,46</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>49,72; 62,81</t>
+          <t>45,34; 63,85</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>43,74; 63,45</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>35,61; 52,55</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>57,28; 68,78</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>57,14; 69,4</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>49,55; 62,72</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>42,76; 54,74</t>
         </is>
       </c>
     </row>
@@ -1081,32 +1497,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>73,14%</t>
+          <t>72,9%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
+          <t>74,93%</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>54,17%</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>66,04%</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>55,55%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>66,48%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>63,35%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
           <t>48,08%</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>69,53%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>51,11%</t>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>45,25%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>69,64%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>69,02%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>51,12%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>50,44%</t>
         </is>
       </c>
     </row>
@@ -1119,49 +1565,1712 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>69,76; 75,96</t>
+          <t>69,21; 75,95</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>50,76; 57,45</t>
+          <t>71,48; 77,79</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>62,9; 68,63</t>
+          <t>50,66; 57,46</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>44,99; 51,31</t>
+          <t>52,17; 58,76</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>67,04; 71,62</t>
+          <t>63,62; 68,77</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>48,74; 53,43</t>
+          <t>60,03; 66,44</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>44,72; 51,39</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>41,98; 48,32</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>67,49; 71,56</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>66,83; 71,15</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>48,62; 53,45</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>48,04; 52,75</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que no tiene capacidad para afrontar gastos imprevistos (de 650 euros) (tasa de respuesta: 97,9%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>204.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>154.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>101.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>386347</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>325798</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>17398</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>21664</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>337073</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>289303</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>18368</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>17661</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>723420</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>615100</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>35766</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>39325</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>340911; 419331</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>285323; 363448</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>13425; 21201</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>17030; 25968</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>302004; 367066</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>248951; 330172</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>14983; 21497</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>13927; 20692</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>670290; 776474</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>549130; 672405</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>30203; 40981</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>33681; 44906</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>130.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>150.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>117.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>280.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>217.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>153.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>133.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>363194</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>449815</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>29434</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>27241</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>326031</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>330284</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>23083</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>20729</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>689225</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>780099</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>52517</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>47970</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>292563; 413011</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>406615; 485642</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>24830; 34144</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>22150; 31463</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>293398; 358831</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>288709; 366539</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>19639; 26416</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>17199; 24013</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>607564; 749836</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>722925; 839679</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>46319; 58529</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>41748; 53887</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>207.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>156.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>123.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>288.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>225.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>117.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>495.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>381.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>240.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>215.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>457618</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>481940</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>32887</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>36783</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>541854</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>503763</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>25580</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>24801</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>999472</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>985703</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>58467</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>61584</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>403479; 499452</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>432203; 524665</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>28389; 36886</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>32153; 41712</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>511520; 570393</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>462600; 538732</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>22369; 28920</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>21274; 28682</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>934163; 1051460</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>926110; 1040250</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>52807; 64043</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>55426; 66991</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>241.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>193.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>231.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>200.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>106.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>472.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>393.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>182.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>216.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>479111</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>491100</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>26975</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>30207</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>396313</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>420074</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>20795</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>24024</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>875424</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>911174</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>47770</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>54232</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>437225; 512005</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>436873; 523807</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>22708; 31652</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>26117; 34171</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>361379; 426501</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>384648; 453663</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>17757; 24269</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>20725; 27298</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>823206; 920138</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>847149; 963046</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>41940; 53158</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>48638; 59219</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>178.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>140.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>155.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>333.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>243.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>168.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>176.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>337611</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>325760</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>22590</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>22960</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>301016</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>267191</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>18866</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>18357</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>638627</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>592951</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>41456</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>41317</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>307548; 365772</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>289439; 359979</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>18982; 25752</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>19793; 26187</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>271610; 328529</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>224557; 302846</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>15830; 21995</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>15275; 21238</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>596842; 679330</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>538875; 638972</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>36784; 46364</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>37061; 46089</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>137.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>134.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>83.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>271.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>179.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>147.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>147.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>372324</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>398722</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>27284</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>24880</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>357612</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>367997</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>33036</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>25804</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>729937</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>766720</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>60320</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>50684</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>334163; 403609</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>355596; 437097</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>23115; 30978</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>21057; 28895</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>306823; 404858</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>301465; 424538</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>26849; 38947</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>21083; 31113</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>656979; 788886</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>687056; 834458</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>53069; 67179</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>44511; 56992</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>981.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>752.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>494.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>503.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>1074.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>815.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>497.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>488.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>2055.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>1567.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>991.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>991.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>2396206</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>2473135</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>156568</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>163736</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>2259900</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>2178612</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>139728</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>131375</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>4656105</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>4651746</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>296296</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>295112</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>2274982; 2496519</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>2359480; 2567675</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>146411; 166070</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>153790; 173199</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>2162617; 2337632</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>2064408; 2284860</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>129963; 149354</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>121872; 140290</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>4512616; 4784510</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>4504315; 4795355</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>281821; 309830</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>281057; 308652</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>